--- a/General_data.xlsx
+++ b/General_data.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,4 +624,837 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Birth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agnese          </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bunny</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.45.1234</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>data_1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ainars          </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kitty</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.43.1234</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data_1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ainars          </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Olina</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.54.4321</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data_1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexander       </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mug</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.54.6543</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data_1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexander       </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pen</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.96.9876</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data_1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Luise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Little</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.45.1234</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Huane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Big</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.43.1234</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nauris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Wide</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.54.4321</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Huge</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.54.6543</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olga</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thin</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>89.96.9876</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>licence ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32323232</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sting</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>43434343</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ester</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>54545454</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vikky</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sorry</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>65656565</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexander       </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ilyas</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76767676</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kitty</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>98989898</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Franny</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fog</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>87878787</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Luise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mug</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76767676</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Huan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pencile</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>65656565</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pen</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>54545454</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data_4.xlsx</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Government ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Irina</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mila</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>data_2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alexey</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Donnovan</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2222222222</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data_2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vasily</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elbrus</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3333333333</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data_2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valentin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mont</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4444444444</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data_2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexander       </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Blanc</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5555555555</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data_2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>98989898</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>87878787</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mila</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Print</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76767676</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nony</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>65656565</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ernest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>54545454</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data_3.xlsx</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>